--- a/sgs-wallpaper.xlsx
+++ b/sgs-wallpaper.xlsx
@@ -4,24 +4,509 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="17520" windowHeight="11880"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="蜀" sheetId="1" r:id="rId1"/>
+    <sheet name="魏" sheetId="2" r:id="rId2"/>
+    <sheet name="吴" sheetId="3" r:id="rId3"/>
+    <sheet name="群" sheetId="4" r:id="rId4"/>
+    <sheet name="神" sheetId="6" r:id="rId5"/>
+    <sheet name="OL" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="159">
+  <si>
+    <t>谋刘备</t>
+  </si>
+  <si>
+    <t>明良千古</t>
+  </si>
+  <si>
+    <t>谋马超</t>
+  </si>
+  <si>
+    <t>谋黄忠</t>
+  </si>
+  <si>
+    <t>谋夏侯氏</t>
+  </si>
+  <si>
+    <t>谋孙尚香</t>
+  </si>
+  <si>
+    <t>诸葛瞻</t>
+  </si>
+  <si>
+    <t>绵竹之殇</t>
+  </si>
+  <si>
+    <t>马云禄</t>
+  </si>
+  <si>
+    <t>花海舞枪</t>
+  </si>
+  <si>
+    <t>张星彩</t>
+  </si>
+  <si>
+    <t>临阵对决</t>
+  </si>
+  <si>
+    <t>沙摩柯</t>
+  </si>
+  <si>
+    <t>傅佥</t>
+  </si>
+  <si>
+    <t>董允</t>
+  </si>
+  <si>
+    <t>界关羽</t>
+  </si>
+  <si>
+    <t>啸风从龙</t>
+  </si>
+  <si>
+    <t>胡金定</t>
+  </si>
+  <si>
+    <t>马良</t>
+  </si>
+  <si>
+    <t>张翼</t>
+  </si>
+  <si>
+    <t>谋法正</t>
+  </si>
+  <si>
+    <t>陈震</t>
+  </si>
+  <si>
+    <t>界廖化</t>
+  </si>
+  <si>
+    <t>秦宓</t>
+  </si>
+  <si>
+    <t>冠绝天下</t>
+  </si>
+  <si>
+    <t>曹纯</t>
+  </si>
+  <si>
+    <t>长坂败备</t>
+  </si>
+  <si>
+    <t>界钟会</t>
+  </si>
+  <si>
+    <t>潜蛟觊天</t>
+  </si>
+  <si>
+    <t>谋曹操</t>
+  </si>
+  <si>
+    <t>雄吞天下</t>
+  </si>
+  <si>
+    <t>王粲</t>
+  </si>
+  <si>
+    <t>笔翰如流</t>
+  </si>
+  <si>
+    <t>界于禁</t>
+  </si>
+  <si>
+    <t>威严毅重</t>
+  </si>
+  <si>
+    <t>戏志才</t>
+  </si>
+  <si>
+    <t>举棋若定</t>
+  </si>
+  <si>
+    <t>曹婴</t>
+  </si>
+  <si>
+    <t>水清濯缨</t>
+  </si>
+  <si>
+    <t>王元姬</t>
+  </si>
+  <si>
+    <t>鼠年冬至</t>
+  </si>
+  <si>
+    <t>羊徽瑜</t>
+  </si>
+  <si>
+    <t>牛年中秋</t>
+  </si>
+  <si>
+    <t>马钧</t>
+  </si>
+  <si>
+    <t>能工巧匠</t>
+  </si>
+  <si>
+    <t>界曹真</t>
+  </si>
+  <si>
+    <t>虎年春节</t>
+  </si>
+  <si>
+    <t>谋曹仁</t>
+  </si>
+  <si>
+    <t>郝昭</t>
+  </si>
+  <si>
+    <t>程昱</t>
+  </si>
+  <si>
+    <t>文鸯</t>
+  </si>
+  <si>
+    <t>曹嵩</t>
+  </si>
+  <si>
+    <t>曹丕</t>
+  </si>
+  <si>
+    <t>牛年清明</t>
+  </si>
+  <si>
+    <t>崔琰</t>
+  </si>
+  <si>
+    <t>曹冲</t>
+  </si>
+  <si>
+    <t>五陵英少</t>
+  </si>
+  <si>
+    <t>界满宠</t>
+  </si>
+  <si>
+    <t>曹昂</t>
+  </si>
+  <si>
+    <t>竭战鳞伤</t>
+  </si>
+  <si>
+    <t>鲁芝</t>
+  </si>
+  <si>
+    <t>老贾逵</t>
+  </si>
+  <si>
+    <t>袁涣</t>
+  </si>
+  <si>
+    <t>孙寒华</t>
+  </si>
+  <si>
+    <t>莲华熠熠</t>
+  </si>
+  <si>
+    <t>界徐盛</t>
+  </si>
+  <si>
+    <t>破军杀将</t>
+  </si>
+  <si>
+    <t>界步练师</t>
+  </si>
+  <si>
+    <t>鸾飞凤舞</t>
+  </si>
+  <si>
+    <t>谋孙策</t>
+  </si>
+  <si>
+    <t>虎踞江东</t>
+  </si>
+  <si>
+    <t>谋黄盖</t>
+  </si>
+  <si>
+    <t>鏖战赤壁</t>
+  </si>
+  <si>
+    <t>骆统</t>
+  </si>
+  <si>
+    <t>仁民爱物</t>
+  </si>
+  <si>
+    <t>留赞</t>
+  </si>
+  <si>
+    <t>灵魂歌王</t>
+  </si>
+  <si>
+    <t>周处</t>
+  </si>
+  <si>
+    <t>鲁肃</t>
+  </si>
+  <si>
+    <t>联刘抗曹</t>
+  </si>
+  <si>
+    <t>界黄盖</t>
+  </si>
+  <si>
+    <t>急火先锋</t>
+  </si>
+  <si>
+    <t>孙鲁育</t>
+  </si>
+  <si>
+    <t>牛年端午</t>
+  </si>
+  <si>
+    <t>谋周瑜</t>
+  </si>
+  <si>
+    <t>虎年清明</t>
+  </si>
+  <si>
+    <t>谋大乔</t>
+  </si>
+  <si>
+    <t>鼠年春分</t>
+  </si>
+  <si>
+    <t>谋甘宁</t>
+  </si>
+  <si>
+    <t>界孙权</t>
+  </si>
+  <si>
+    <t>吴王六剑</t>
+  </si>
+  <si>
+    <t>周鲂</t>
+  </si>
+  <si>
+    <t>阚泽</t>
+  </si>
+  <si>
+    <t>许攸</t>
+  </si>
+  <si>
+    <t>盛气凌人</t>
+  </si>
+  <si>
+    <t>谋貂蝉</t>
+  </si>
+  <si>
+    <t>舞惑群心</t>
+  </si>
+  <si>
+    <t>杜预</t>
+  </si>
+  <si>
+    <t>龙吟破竹</t>
+  </si>
+  <si>
+    <t>界左慈</t>
+  </si>
+  <si>
+    <t>役使鬼神</t>
+  </si>
+  <si>
+    <t>界李儒</t>
+  </si>
+  <si>
+    <t>鸠杀少帝</t>
+  </si>
+  <si>
+    <t>张让</t>
+  </si>
+  <si>
+    <t>权冠诸臣</t>
+  </si>
+  <si>
+    <t>刘焉</t>
+  </si>
+  <si>
+    <t>雄踞益州</t>
+  </si>
+  <si>
+    <t>苏飞</t>
+  </si>
+  <si>
+    <t>肝胆相照</t>
+  </si>
+  <si>
+    <t>徐荣</t>
+  </si>
+  <si>
+    <t>烬灭神骸</t>
+  </si>
+  <si>
+    <t>杨彪</t>
+  </si>
+  <si>
+    <t>忧心国事</t>
+  </si>
+  <si>
+    <t>祢衡</t>
+  </si>
+  <si>
+    <t>击鼓骂曹</t>
+  </si>
+  <si>
+    <t>南华老仙</t>
+  </si>
+  <si>
+    <t>野鹤闲云</t>
+  </si>
+  <si>
+    <t>星甘宁</t>
+  </si>
+  <si>
+    <t>锦帆游侠</t>
+  </si>
+  <si>
+    <t>界沮授</t>
+  </si>
+  <si>
+    <t>皇甫嵩</t>
+  </si>
+  <si>
+    <t>麯义</t>
+  </si>
+  <si>
+    <t>公孙康</t>
+  </si>
+  <si>
+    <t>星黄忠</t>
+  </si>
+  <si>
+    <t>星魏延</t>
+  </si>
+  <si>
+    <t>张绣</t>
+  </si>
+  <si>
+    <t>界吕布</t>
+  </si>
+  <si>
+    <t>傲睨万物</t>
+  </si>
+  <si>
+    <t>sp貂蝉</t>
+  </si>
+  <si>
+    <t>驭魂千机</t>
+  </si>
+  <si>
+    <t>sp赵云</t>
+  </si>
+  <si>
+    <t>长板救主</t>
+  </si>
+  <si>
+    <t>星徐晃</t>
+  </si>
+  <si>
+    <t>界蔡文姬</t>
+  </si>
+  <si>
+    <t>泪捻琵琶</t>
+  </si>
+  <si>
+    <t>高览</t>
+  </si>
+  <si>
+    <t>刘琦</t>
+  </si>
+  <si>
+    <t>李傕</t>
+  </si>
+  <si>
+    <t>马元义</t>
+  </si>
+  <si>
+    <t>界华雄</t>
+  </si>
+  <si>
+    <t>王荣</t>
+  </si>
+  <si>
+    <t>袁覃袁尚</t>
+  </si>
+  <si>
+    <t>腾芳兰</t>
+  </si>
+  <si>
+    <t>清河公主</t>
+  </si>
+  <si>
+    <t>马谡</t>
+  </si>
+  <si>
+    <t>界荀彧</t>
+  </si>
+  <si>
+    <t>馨香清欢</t>
+  </si>
+  <si>
+    <t>卫兹</t>
+  </si>
+  <si>
+    <t>界赵云</t>
+  </si>
+  <si>
+    <t>华彩节庆</t>
+  </si>
+  <si>
+    <t>神张角</t>
+  </si>
+  <si>
+    <t>驭道震泽</t>
+  </si>
+  <si>
+    <t>黄承彦</t>
+  </si>
+  <si>
+    <t>夜占吉凶</t>
+  </si>
+  <si>
+    <t>唐姬</t>
+  </si>
+  <si>
+    <t>鹊乐织欣</t>
+  </si>
+  <si>
+    <t>钟琰</t>
+  </si>
+  <si>
+    <t>枝下花美</t>
+  </si>
+  <si>
+    <t>群张郃</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -481,19 +966,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -941,14 +1426,143 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A2:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -958,14 +1572,177 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A2:B36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -975,16 +1752,498 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A2:B27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A4:B38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>126</v>
+      </c>
+      <c r="B30" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>128</v>
+      </c>
+      <c r="B31" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>133</v>
+      </c>
+      <c r="B34" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A11:B28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>148</v>
+      </c>
+      <c r="B23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>150</v>
+      </c>
+      <c r="B24" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>152</v>
+      </c>
+      <c r="B25" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>154</v>
+      </c>
+      <c r="B26" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>156</v>
+      </c>
+      <c r="B27" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/sgs-wallpaper.xlsx
+++ b/sgs-wallpaper.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17520" windowHeight="11880"/>
+    <workbookView windowWidth="17520" windowHeight="11880" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="蜀" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="162">
+  <si>
+    <t>原画</t>
+  </si>
+  <si>
+    <t>制图</t>
+  </si>
   <si>
     <t>谋刘备</t>
   </si>
   <si>
     <t>明良千古</t>
+  </si>
+  <si>
+    <t>√</t>
   </si>
   <si>
     <t>谋马超</t>
@@ -1426,140 +1435,184 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B23"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="1" spans="3:4">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1572,174 +1625,210 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B36"/>
+  <dimension ref="A2:C36"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>56</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>62</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1765,126 +1854,126 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B25" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1907,198 +1996,198 @@
   <sheetData>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B12" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B13" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B14" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B15" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B16" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B31" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B32" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B34" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2136,110 +2225,110 @@
   <sheetData>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B23" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B24" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B25" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B26" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B27" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/sgs-wallpaper.xlsx
+++ b/sgs-wallpaper.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17520" windowHeight="11880" activeTab="1"/>
+    <workbookView windowWidth="17520" windowHeight="11880" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="蜀" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="162">
   <si>
     <t>原画</t>
   </si>
@@ -1627,8 +1627,8 @@
   <sheetPr/>
   <dimension ref="A2:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1986,13 +1986,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A4:B38"/>
+  <dimension ref="A4:D38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <sheetData>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
@@ -2002,12 +2002,18 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>98</v>
       </c>
       <c r="B5" t="s">
         <v>99</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2">

--- a/sgs-wallpaper.xlsx
+++ b/sgs-wallpaper.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17520" windowHeight="11880" activeTab="3"/>
+    <workbookView windowWidth="21000" windowHeight="7955" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="蜀" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="162">
-  <si>
-    <t>原画</t>
-  </si>
-  <si>
-    <t>制图</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="159">
   <si>
     <t>谋刘备</t>
   </si>
@@ -33,9 +27,6 @@
     <t>明良千古</t>
   </si>
   <si>
-    <t>√</t>
-  </si>
-  <si>
     <t>谋马超</t>
   </si>
   <si>
@@ -105,6 +96,9 @@
     <t>冠绝天下</t>
   </si>
   <si>
+    <t>谋张飞</t>
+  </si>
+  <si>
     <t>曹纯</t>
   </si>
   <si>
@@ -153,10 +147,13 @@
     <t>鼠年冬至</t>
   </si>
   <si>
+    <t>莲池戏水</t>
+  </si>
+  <si>
     <t>羊徽瑜</t>
   </si>
   <si>
-    <t>牛年中秋</t>
+    <t xml:space="preserve"> 盛夏萤火</t>
   </si>
   <si>
     <t>马钧</t>
@@ -165,10 +162,10 @@
     <t>能工巧匠</t>
   </si>
   <si>
-    <t>界曹真</t>
-  </si>
-  <si>
-    <t>虎年春节</t>
+    <t>程昱</t>
+  </si>
+  <si>
+    <t>泰山捧日</t>
   </si>
   <si>
     <t>谋曹仁</t>
@@ -177,9 +174,6 @@
     <t>郝昭</t>
   </si>
   <si>
-    <t>程昱</t>
-  </si>
-  <si>
     <t>文鸯</t>
   </si>
   <si>
@@ -252,7 +246,7 @@
     <t>骆统</t>
   </si>
   <si>
-    <t>仁民爱物</t>
+    <t>辨若悬河</t>
   </si>
   <si>
     <t>留赞</t>
@@ -285,13 +279,13 @@
     <t>谋周瑜</t>
   </si>
   <si>
-    <t>虎年清明</t>
+    <t>兔年清明</t>
   </si>
   <si>
     <t>谋大乔</t>
   </si>
   <si>
-    <t>鼠年春分</t>
+    <t>绝世之姿</t>
   </si>
   <si>
     <t>谋甘宁</t>
@@ -306,7 +300,7 @@
     <t>周鲂</t>
   </si>
   <si>
-    <t>阚泽</t>
+    <t>下发载义</t>
   </si>
   <si>
     <t>许攸</t>
@@ -342,7 +336,7 @@
     <t>张让</t>
   </si>
   <si>
-    <t>权冠诸臣</t>
+    <t>权冠诸宦</t>
   </si>
   <si>
     <t>刘焉</t>
@@ -382,9 +376,6 @@
   </si>
   <si>
     <t>星甘宁</t>
-  </si>
-  <si>
-    <t>锦帆游侠</t>
   </si>
   <si>
     <t>界沮授</t>
@@ -521,7 +512,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -529,7 +520,7 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -537,14 +528,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -552,7 +543,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -560,7 +551,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -568,7 +559,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -576,7 +567,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -584,14 +575,14 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -599,7 +590,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -607,7 +598,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -615,14 +606,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -630,52 +621,64 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -996,7 +999,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1020,16 +1023,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1038,143 +1041,149 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1435,184 +1444,151 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A2:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
     <col min="2" max="2" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:4">
-      <c r="C1" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+      <c r="B9" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
+      <c r="B17" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
+      <c r="B24" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1625,211 +1601,180 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:C36"/>
+  <dimension ref="A2:C34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>28</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>30</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>32</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>34</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>36</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>38</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>43</v>
       </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="B10" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
+      <c r="B12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
+      <c r="B27" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="28" spans="1:2">
+      <c r="A28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" t="s">
         <v>56</v>
       </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
+      <c r="B29" s="1" t="s">
         <v>57</v>
       </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="1"/>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="B31" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>61</v>
+      </c>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" t="s">
         <v>62</v>
       </c>
-      <c r="C33" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
-        <v>65</v>
-      </c>
+      <c r="B34" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1841,139 +1786,139 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B27"/>
+  <dimension ref="A2:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="2" max="2" width="10.3796296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" t="s">
-        <v>67</v>
+        <v>64</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" t="s">
-        <v>69</v>
+        <v>66</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" t="s">
-        <v>71</v>
+        <v>68</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" t="s">
-        <v>73</v>
+        <v>70</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" t="s">
-        <v>75</v>
+        <v>72</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" t="s">
-        <v>77</v>
+        <v>74</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
         <v>78</v>
       </c>
-      <c r="B8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>80</v>
-      </c>
+      <c r="B12" s="1"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>81</v>
-      </c>
-      <c r="B19" t="s">
-        <v>82</v>
+        <v>79</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" t="s">
-        <v>84</v>
+        <v>81</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21" t="s">
-        <v>86</v>
+        <v>83</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>87</v>
-      </c>
-      <c r="B22" t="s">
-        <v>88</v>
+        <v>85</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
         <v>89</v>
       </c>
-      <c r="B23" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>91</v>
-      </c>
+      <c r="B24" s="1"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
         <v>92</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" s="1" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1986,214 +1931,215 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A4:D38"/>
+  <dimension ref="A4:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <sheetData>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>96</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" s="1" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" t="s">
-        <v>101</v>
+        <v>98</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B7" t="s">
-        <v>103</v>
+        <v>100</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B8" t="s">
-        <v>105</v>
+        <v>102</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B9" t="s">
-        <v>107</v>
+        <v>104</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B10" t="s">
-        <v>109</v>
+        <v>106</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>110</v>
-      </c>
-      <c r="B11" t="s">
-        <v>111</v>
+        <v>108</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>112</v>
-      </c>
-      <c r="B12" t="s">
-        <v>113</v>
+        <v>110</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>114</v>
-      </c>
-      <c r="B13" t="s">
-        <v>115</v>
+        <v>112</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>118</v>
-      </c>
-      <c r="B15" t="s">
-        <v>119</v>
+        <v>116</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
         <v>120</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>127</v>
-      </c>
+      <c r="B24" s="1"/>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B30" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B31" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B32" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>135</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="B33" s="1"/>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B34" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2211,7 +2157,7 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2227,114 +2173,114 @@
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <sheetData>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B23" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B24" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B25" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B26" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B27" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/sgs-wallpaper.xlsx
+++ b/sgs-wallpaper.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="7955" activeTab="3"/>
+    <workbookView windowWidth="21000" windowHeight="8544" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="蜀" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="163">
   <si>
     <t>谋刘备</t>
   </si>
@@ -414,7 +414,7 @@
     <t>sp赵云</t>
   </si>
   <si>
-    <t>长板救主</t>
+    <t>单骑救主</t>
   </si>
   <si>
     <t>星徐晃</t>
@@ -435,34 +435,46 @@
     <t>李傕</t>
   </si>
   <si>
-    <t>马元义</t>
-  </si>
-  <si>
     <t>界华雄</t>
   </si>
   <si>
+    <t>与关周旋</t>
+  </si>
+  <si>
     <t>王荣</t>
   </si>
   <si>
-    <t>袁覃袁尚</t>
-  </si>
-  <si>
-    <t>腾芳兰</t>
+    <t>袁谭覃袁尚</t>
+  </si>
+  <si>
+    <t>藤芳兰</t>
+  </si>
+  <si>
+    <t>脂车香姝</t>
   </si>
   <si>
     <t>清河公主</t>
   </si>
   <si>
+    <t>馨香清欢</t>
+  </si>
+  <si>
     <t>马谡</t>
   </si>
   <si>
+    <t>勘策惊涛</t>
+  </si>
+  <si>
     <t>界荀彧</t>
   </si>
   <si>
-    <t>馨香清欢</t>
+    <t>温婉如玉</t>
   </si>
   <si>
     <t>卫兹</t>
+  </si>
+  <si>
+    <t>助龙点睛</t>
   </si>
   <si>
     <t>界赵云</t>
@@ -1446,8 +1458,8 @@
   <sheetPr/>
   <dimension ref="A2:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1788,7 +1800,7 @@
   <sheetPr/>
   <dimension ref="A2:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -1931,10 +1943,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A4:B38"/>
+  <dimension ref="A4:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -2023,7 +2035,7 @@
       <c r="A14" t="s">
         <v>114</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2079,16 +2091,17 @@
       </c>
       <c r="B24" s="1"/>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>125</v>
       </c>
+      <c r="B29" s="1"/>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>126</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2096,7 +2109,7 @@
       <c r="A31" t="s">
         <v>128</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2104,7 +2117,7 @@
       <c r="A32" t="s">
         <v>130</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2118,29 +2131,27 @@
       <c r="A34" t="s">
         <v>133</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
-        <v>138</v>
-      </c>
+      <c r="B37" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2169,40 +2180,52 @@
   <sheetPr/>
   <dimension ref="A11:B28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <sheetData>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="B15" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -2210,22 +2233,25 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>144</v>
+        <v>146</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>40</v>
       </c>
-      <c r="B20" t="s">
-        <v>146</v>
+      <c r="B20" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:1">
@@ -2233,54 +2259,57 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>147</v>
+        <v>150</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B23" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B24" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B25" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B26" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B27" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/sgs-wallpaper.xlsx
+++ b/sgs-wallpaper.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8544" activeTab="5"/>
+    <workbookView windowWidth="21000" windowHeight="8544"/>
   </bookViews>
   <sheets>
     <sheet name="蜀" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="群" sheetId="4" r:id="rId4"/>
     <sheet name="神" sheetId="6" r:id="rId5"/>
     <sheet name="OL" sheetId="5" r:id="rId6"/>
+    <sheet name="线下" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="194">
   <si>
     <t>谋刘备</t>
   </si>
@@ -39,6 +40,9 @@
     <t>谋孙尚香</t>
   </si>
   <si>
+    <t>花曳心牵</t>
+  </si>
+  <si>
     <t>诸葛瞻</t>
   </si>
   <si>
@@ -66,6 +70,9 @@
     <t>董允</t>
   </si>
   <si>
+    <t>界赵云</t>
+  </si>
+  <si>
     <t>界关羽</t>
   </si>
   <si>
@@ -81,15 +88,24 @@
     <t>张翼</t>
   </si>
   <si>
+    <t>大败王经</t>
+  </si>
+  <si>
     <t>谋法正</t>
   </si>
   <si>
+    <t>上兵伐谋</t>
+  </si>
+  <si>
     <t>陈震</t>
   </si>
   <si>
     <t>界廖化</t>
   </si>
   <si>
+    <t>白刃相接</t>
+  </si>
+  <si>
     <t>秦宓</t>
   </si>
   <si>
@@ -213,6 +229,12 @@
     <t>袁涣</t>
   </si>
   <si>
+    <t>甄姬</t>
+  </si>
+  <si>
+    <t>才颜双绝</t>
+  </si>
+  <si>
     <t>孙寒华</t>
   </si>
   <si>
@@ -387,6 +409,9 @@
     <t>麯义</t>
   </si>
   <si>
+    <t>界桥先登</t>
+  </si>
+  <si>
     <t>公孙康</t>
   </si>
   <si>
@@ -426,6 +451,9 @@
     <t>泪捻琵琶</t>
   </si>
   <si>
+    <t>OL界原画</t>
+  </si>
+  <si>
     <t>高览</t>
   </si>
   <si>
@@ -435,6 +463,45 @@
     <t>李傕</t>
   </si>
   <si>
+    <t>神甘宁</t>
+  </si>
+  <si>
+    <t>万人辟易</t>
+  </si>
+  <si>
+    <t>神郭嘉</t>
+  </si>
+  <si>
+    <t>倚星折月</t>
+  </si>
+  <si>
+    <t>神赵云</t>
+  </si>
+  <si>
+    <t>战龙在野</t>
+  </si>
+  <si>
+    <t>神太史慈</t>
+  </si>
+  <si>
+    <t>神孙策</t>
+  </si>
+  <si>
+    <t>霸王再世</t>
+  </si>
+  <si>
+    <t>神陆逊</t>
+  </si>
+  <si>
+    <t>绽焰摧枯</t>
+  </si>
+  <si>
+    <t>神吕蒙</t>
+  </si>
+  <si>
+    <t>兼资文武</t>
+  </si>
+  <si>
     <t>界华雄</t>
   </si>
   <si>
@@ -444,6 +511,9 @@
     <t>王荣</t>
   </si>
   <si>
+    <t>俪觞妙舞</t>
+  </si>
+  <si>
     <t>袁谭覃袁尚</t>
   </si>
   <si>
@@ -468,27 +538,21 @@
     <t>界荀彧</t>
   </si>
   <si>
+    <t>竹隐定局</t>
+  </si>
+  <si>
     <t>温婉如玉</t>
   </si>
   <si>
+    <t>紫电清霜</t>
+  </si>
+  <si>
     <t>卫兹</t>
   </si>
   <si>
     <t>助龙点睛</t>
   </si>
   <si>
-    <t>界赵云</t>
-  </si>
-  <si>
-    <t>华彩节庆</t>
-  </si>
-  <si>
-    <t>神张角</t>
-  </si>
-  <si>
-    <t>驭道震泽</t>
-  </si>
-  <si>
     <t>黄承彦</t>
   </si>
   <si>
@@ -498,7 +562,7 @@
     <t>唐姬</t>
   </si>
   <si>
-    <t>鹊乐织欣</t>
+    <t>水月镜缘</t>
   </si>
   <si>
     <t>钟琰</t>
@@ -507,7 +571,37 @@
     <t>枝下花美</t>
   </si>
   <si>
-    <t>群张郃</t>
+    <t>sp张郃</t>
+  </si>
+  <si>
+    <t>杨艳</t>
+  </si>
+  <si>
+    <t>妍芷艳质</t>
+  </si>
+  <si>
+    <t>陆郁生</t>
+  </si>
+  <si>
+    <t>战场绝版</t>
+  </si>
+  <si>
+    <t>潘淑</t>
+  </si>
+  <si>
+    <t>江东锦绣</t>
+  </si>
+  <si>
+    <t>芮姬</t>
+  </si>
+  <si>
+    <t>蛮娇武俏</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>承-甄姬</t>
   </si>
 </sst>
 </file>
@@ -520,13 +614,19 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF0645AD"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -688,7 +788,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -879,12 +979,38 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFEFEFEF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFEFEFEF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFEFEFEF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFEFEFEF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFEFEFEF"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFEFEFEF"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1005,144 +1131,153 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1456,13 +1591,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B24"/>
+  <dimension ref="A2:C22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="10.5" customWidth="1"/>
   </cols>
@@ -1499,107 +1634,127 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>26</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+        <v>28</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1613,180 +1768,188 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:C34"/>
+  <dimension ref="A2:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="2" t="s">
-        <v>49</v>
+      <c r="A18" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
+      <c r="A19" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
+      <c r="B19" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="1"/>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1798,10 +1961,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B26"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1809,128 +1972,128 @@
     <col min="2" max="2" width="10.3796296296296" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
+      </c>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" s="1"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>81</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>87</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>89</v>
-      </c>
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>90</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
         <v>92</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1943,215 +2106,224 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A4:B37"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>114</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>115</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>116</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>117</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>109</v>
-      </c>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>121</v>
-      </c>
-      <c r="B21" s="1"/>
+        <v>134</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>122</v>
-      </c>
-      <c r="B22" s="1"/>
+        <v>136</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>123</v>
-      </c>
-      <c r="B23" s="1"/>
+        <v>138</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="B24" s="1"/>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>125</v>
-      </c>
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>126</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>128</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>130</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>132</v>
-      </c>
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>133</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>135</v>
-      </c>
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>136</v>
-      </c>
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>137</v>
-      </c>
-      <c r="B37" s="1"/>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>141</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2162,14 +2334,69 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A2:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2178,139 +2405,197 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A11:B28"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="11" spans="1:2">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" ht="15.15" spans="1:2">
+      <c r="A4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" ht="15.15" spans="1:9">
+      <c r="A6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>138</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>139</v>
+        <v>56</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" s="1"/>
+        <v>175</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>140</v>
-      </c>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:2">
+        <v>177</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>144</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>183</v>
+      </c>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>98</v>
+        <v>184</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>148</v>
+        <v>188</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>150</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>152</v>
-      </c>
-      <c r="B23" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>154</v>
-      </c>
-      <c r="B24" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>156</v>
-      </c>
-      <c r="B25" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>158</v>
-      </c>
-      <c r="B26" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>160</v>
-      </c>
-      <c r="B27" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>162</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22" spans="7:7">
+      <c r="G22" t="s">
+        <v>192</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/sgs-wallpaper.xlsx
+++ b/sgs-wallpaper.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8544"/>
+    <workbookView windowWidth="21000" windowHeight="8544" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="蜀" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="195">
   <si>
     <t>谋刘备</t>
   </si>
@@ -58,18 +58,24 @@
     <t>张星彩</t>
   </si>
   <si>
-    <t>临阵对决</t>
+    <t>临军对阵</t>
   </si>
   <si>
     <t>沙摩柯</t>
   </si>
   <si>
+    <t>战场绝版</t>
+  </si>
+  <si>
     <t>傅佥</t>
   </si>
   <si>
     <t>董允</t>
   </si>
   <si>
+    <t>钟灵四时</t>
+  </si>
+  <si>
     <t>界赵云</t>
   </si>
   <si>
@@ -169,7 +175,7 @@
     <t>羊徽瑜</t>
   </si>
   <si>
-    <t xml:space="preserve"> 盛夏萤火</t>
+    <t>盛夏萤火</t>
   </si>
   <si>
     <t>马钧</t>
@@ -581,9 +587,6 @@
   </si>
   <si>
     <t>陆郁生</t>
-  </si>
-  <si>
-    <t>战场绝版</t>
   </si>
   <si>
     <t>潘淑</t>
@@ -1593,8 +1596,8 @@
   <sheetPr/>
   <dimension ref="A2:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1669,24 +1672,31 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>1</v>
@@ -1694,65 +1704,67 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>20</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>25</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>1</v>
@@ -1770,185 +1782,187 @@
   <sheetPr/>
   <dimension ref="A2:C25"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
+        <v>58</v>
+      </c>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>57</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B22" s="1"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B23" s="1"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B24" s="1"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1974,126 +1988,126 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2116,212 +2130,212 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B24" s="1"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B26" s="1"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B27" s="1"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B28" s="1"/>
     </row>
@@ -2344,56 +2358,56 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2415,163 +2429,163 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" ht="15.15" spans="1:2">
       <c r="A4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I5" s="3"/>
     </row>
     <row r="6" ht="15.15" spans="1:9">
       <c r="A6" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>187</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="7:7">
       <c r="G22" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -2585,15 +2599,15 @@
   <sheetPr/>
   <dimension ref="A2:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B2" s="1"/>
     </row>
